--- a/ergebnisse2018/frankentabelle_direkt_2018.xlsx
+++ b/ergebnisse2018/frankentabelle_direkt_2018.xlsx
@@ -1,262 +1,295 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jan.Eggers@hr.de/Nextcloud2/hr-DDJ/projekte/ltwhe23/ergebnisse2018/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D39EA1-2D52-E642-9517-78316888AD35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28400" windowHeight="12760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
-    <t xml:space="preserve">wk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wk_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wahlberechtigte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">waehler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wahlbeteiligung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ungueltig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ungueltig_prozent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gueltig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRÜNE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AfD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FDP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIE LINKE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FREIE WÄHLER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tierschutzpartei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die PARTEI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIRATEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ÖDP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NPD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sonstige</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Land Hessen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kassel-Land I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kassel-Land II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kassel-Stadt I</t>
+    <t>wk</t>
+  </si>
+  <si>
+    <t>wk_name</t>
+  </si>
+  <si>
+    <t>wahlberechtigte</t>
+  </si>
+  <si>
+    <t>waehler</t>
+  </si>
+  <si>
+    <t>wahlbeteiligung</t>
+  </si>
+  <si>
+    <t>ungueltig</t>
+  </si>
+  <si>
+    <t>ungueltig_prozent</t>
+  </si>
+  <si>
+    <t>gueltig</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>GRÜNE</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>DIE LINKE</t>
+  </si>
+  <si>
+    <t>FREIE WÄHLER</t>
+  </si>
+  <si>
+    <t>Tierschutzpartei</t>
+  </si>
+  <si>
+    <t>Die PARTEI</t>
+  </si>
+  <si>
+    <t>PIRATEN</t>
+  </si>
+  <si>
+    <t>ÖDP</t>
+  </si>
+  <si>
+    <t>NPD</t>
+  </si>
+  <si>
+    <t>Sonstige</t>
+  </si>
+  <si>
+    <t>Land Hessen</t>
+  </si>
+  <si>
+    <t>Kassel-Land I</t>
+  </si>
+  <si>
+    <t>Kassel-Land II</t>
+  </si>
+  <si>
+    <t>Kassel-Stadt I</t>
   </si>
   <si>
     <t xml:space="preserve">Kassel-Stadt II </t>
   </si>
   <si>
-    <t xml:space="preserve">Waldeck-Frankenberg I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waldeck-Frankenberg II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schwalm-Eder I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schwalm-Eder II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eschwege-Witzenhausen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rotenburg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hersfeld</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marburg-Biedenkopf I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marburg-Biedenkopf II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fulda I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fulda II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lahn-Dill I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lahn-Dill II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gießen I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gießen II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vogelsberg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Limburg-Weilburg I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Limburg-Weilburg II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hochtaunus I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hochtaunus II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wetterau I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wetterau II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wetterau III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rheingau-Taunus I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rheingau-Taunus II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wiesbaden I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wiesbaden II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main-Taunus I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main-Taunus II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frankfurt am Main II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frankfurt am Main IV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frankfurt am Main V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frankfurt am Main VI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main-Kinzig I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main-Kinzig II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main-Kinzig III</t>
+    <t>Waldeck-Frankenberg I</t>
+  </si>
+  <si>
+    <t>Waldeck-Frankenberg II</t>
+  </si>
+  <si>
+    <t>Schwalm-Eder I</t>
+  </si>
+  <si>
+    <t>Schwalm-Eder II</t>
+  </si>
+  <si>
+    <t>Eschwege-Witzenhausen</t>
+  </si>
+  <si>
+    <t>Rotenburg</t>
+  </si>
+  <si>
+    <t>Hersfeld</t>
+  </si>
+  <si>
+    <t>Marburg-Biedenkopf I</t>
+  </si>
+  <si>
+    <t>Marburg-Biedenkopf II</t>
+  </si>
+  <si>
+    <t>Fulda I</t>
+  </si>
+  <si>
+    <t>Fulda II</t>
+  </si>
+  <si>
+    <t>Lahn-Dill I</t>
+  </si>
+  <si>
+    <t>Lahn-Dill II</t>
+  </si>
+  <si>
+    <t>Gießen I</t>
+  </si>
+  <si>
+    <t>Gießen II</t>
+  </si>
+  <si>
+    <t>Vogelsberg</t>
+  </si>
+  <si>
+    <t>Limburg-Weilburg I</t>
+  </si>
+  <si>
+    <t>Limburg-Weilburg II</t>
+  </si>
+  <si>
+    <t>Hochtaunus I</t>
+  </si>
+  <si>
+    <t>Hochtaunus II</t>
+  </si>
+  <si>
+    <t>Wetterau I</t>
+  </si>
+  <si>
+    <t>Wetterau II</t>
+  </si>
+  <si>
+    <t>Wetterau III</t>
+  </si>
+  <si>
+    <t>Rheingau-Taunus I</t>
+  </si>
+  <si>
+    <t>Rheingau-Taunus II</t>
+  </si>
+  <si>
+    <t>Wiesbaden I</t>
+  </si>
+  <si>
+    <t>Wiesbaden II</t>
+  </si>
+  <si>
+    <t>Main-Taunus I</t>
+  </si>
+  <si>
+    <t>Main-Taunus II</t>
+  </si>
+  <si>
+    <t>Frankfurt am Main II</t>
+  </si>
+  <si>
+    <t>Frankfurt am Main IV</t>
+  </si>
+  <si>
+    <t>Frankfurt am Main V</t>
+  </si>
+  <si>
+    <t>Frankfurt am Main VI</t>
+  </si>
+  <si>
+    <t>Main-Kinzig I</t>
+  </si>
+  <si>
+    <t>Main-Kinzig II</t>
+  </si>
+  <si>
+    <t>Main-Kinzig III</t>
   </si>
   <si>
     <t xml:space="preserve">Offenbach-Stadt </t>
   </si>
   <si>
-    <t xml:space="preserve">Offenbach Land I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Offenbach Land II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Offenbach Land III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Groß-Gerau I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Groß-Gerau II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Darmstadt-Stadt I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Darmstadt-Stadt II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Darmstadt-Dieburg I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Darmstadt-Dieburg II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Odenwald</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bergstraße I</t>
+    <t>Offenbach Land I</t>
+  </si>
+  <si>
+    <t>Offenbach Land II</t>
+  </si>
+  <si>
+    <t>Offenbach Land III</t>
+  </si>
+  <si>
+    <t>Groß-Gerau I</t>
+  </si>
+  <si>
+    <t>Groß-Gerau II</t>
+  </si>
+  <si>
+    <t>Darmstadt-Stadt I</t>
+  </si>
+  <si>
+    <t>Darmstadt-Stadt II</t>
+  </si>
+  <si>
+    <t>Darmstadt-Dieburg I</t>
+  </si>
+  <si>
+    <t>Darmstadt-Dieburg II</t>
+  </si>
+  <si>
+    <t>Odenwald</t>
+  </si>
+  <si>
+    <t>Bergstraße I</t>
   </si>
   <si>
     <t xml:space="preserve">Bergstraße II </t>
   </si>
   <si>
-    <t xml:space="preserve">Frankfurt am Main I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frankfurt am Main III</t>
+    <t>Frankfurt am Main I</t>
+  </si>
+  <si>
+    <t>Frankfurt am Main III</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -276,16 +309,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 5" xfId="1" xr:uid="{7B062B3C-CD82-5B43-B554-10D2C3742BD8}"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -567,14 +612,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U57"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H56" sqref="H56:H57"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -639,3062 +690,2803 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>4372788</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>2942846</v>
       </c>
-      <c r="E2" t="n">
-        <v>67.2990778423285</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="E2">
+        <v>67.299077842328501</v>
+      </c>
+      <c r="F2">
         <v>69776</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>2.37103810393068</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>2873070</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>843068</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>517904</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>670637</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>362210</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>205384</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>164535</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>88122</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2">
         <v>471</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2">
         <v>12007</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2">
         <v>3818</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2">
         <v>3232</v>
       </c>
-      <c r="T2"/>
-      <c r="U2" t="n">
+      <c r="U2">
         <v>1682</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>81483</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>55495</v>
       </c>
-      <c r="E3" t="n">
-        <v>68.1062307475179</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="E3">
+        <v>68.106230747517898</v>
+      </c>
+      <c r="F3">
         <v>1585</v>
       </c>
-      <c r="G3" t="n">
-        <v>2.85611316334805</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="G3">
+        <v>2.8561131633480499</v>
+      </c>
+      <c r="H3">
         <v>53910</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>12932</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>7167</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>18150</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>6662</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>3301</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>2470</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>3228</v>
       </c>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>82880</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>56427</v>
       </c>
-      <c r="E4" t="n">
-        <v>68.0827702702703</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="E4">
+        <v>68.082770270270302</v>
+      </c>
+      <c r="F4">
         <v>1717</v>
       </c>
-      <c r="G4" t="n">
-        <v>3.0428695482659</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="G4">
+        <v>3.0428695482658998</v>
+      </c>
+      <c r="H4">
         <v>54710</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>12667</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>8197</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>20421</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>6828</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>3396</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>3201</v>
       </c>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>70982</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>48889</v>
       </c>
-      <c r="E5" t="n">
-        <v>68.8752077991603</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="E5">
+        <v>68.875207799160293</v>
+      </c>
+      <c r="F5">
         <v>918</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>1.87772300517499</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>47971</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>10472</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>12832</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>11179</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>4152</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>2564</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5">
         <v>4660</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5">
         <v>1109</v>
       </c>
-      <c r="P5"/>
-      <c r="Q5" t="n">
+      <c r="Q5">
         <v>454</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5">
         <v>381</v>
       </c>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5" t="n">
+      <c r="U5">
         <v>168</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>68040</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>37614</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>55.2821869488536</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>960</v>
       </c>
-      <c r="G6" t="n">
-        <v>2.55224118679215</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="G6">
+        <v>2.5522411867921502</v>
+      </c>
+      <c r="H6">
         <v>36654</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>6698</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>7519</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>9753</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>4565</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6">
         <v>1806</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6">
         <v>4349</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6">
         <v>1023</v>
       </c>
-      <c r="P6"/>
-      <c r="Q6" t="n">
+      <c r="Q6">
         <v>514</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6">
         <v>427</v>
       </c>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>69129</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>45148</v>
       </c>
-      <c r="E7" t="n">
-        <v>65.3097831590215</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E7">
+        <v>65.309783159021507</v>
+      </c>
+      <c r="F7">
         <v>1093</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>2.42092672986622</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>44055</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>15077</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>6059</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>10462</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>5212</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7">
         <v>4189</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7">
         <v>1586</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7">
         <v>1470</v>
       </c>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>69130</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>43961</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>63.5917835961232</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>1008</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>2.29294147084916</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>42953</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>13446</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>5941</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>11803</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>5635</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8">
         <v>2665</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8">
         <v>1738</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8">
         <v>1725</v>
       </c>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>72623</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>51610</v>
       </c>
-      <c r="E9" t="n">
-        <v>71.0656403618688</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E9">
+        <v>71.065640361868802</v>
+      </c>
+      <c r="F9">
         <v>1541</v>
       </c>
-      <c r="G9" t="n">
-        <v>2.98585545436931</v>
-      </c>
-      <c r="H9" t="n">
+      <c r="G9">
+        <v>2.9858554543693101</v>
+      </c>
+      <c r="H9">
         <v>50069</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>11331</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>6950</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>17301</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9">
         <v>6133</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9">
         <v>3480</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9">
         <v>2364</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9">
         <v>2510</v>
       </c>
-      <c r="P9"/>
-      <c r="Q9"/>
-      <c r="R9"/>
-      <c r="S9"/>
-      <c r="T9"/>
-      <c r="U9"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>71320</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>47915</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>67.1831183398766</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>1549</v>
       </c>
-      <c r="G10" t="n">
-        <v>3.23280809767296</v>
-      </c>
-      <c r="H10" t="n">
+      <c r="G10">
+        <v>3.2328080976729598</v>
+      </c>
+      <c r="H10">
         <v>46366</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>11728</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>5058</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>13554</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10">
         <v>7333</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10">
         <v>3744</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N10">
         <v>2021</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O10">
         <v>2928</v>
       </c>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
-      <c r="U10"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>63715</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>41010</v>
       </c>
-      <c r="E11" t="n">
-        <v>64.3647492741113</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E11">
+        <v>64.364749274111304</v>
+      </c>
+      <c r="F11">
         <v>1209</v>
       </c>
-      <c r="G11" t="n">
-        <v>2.94806144842721</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="G11">
+        <v>2.9480614484272101</v>
+      </c>
+      <c r="H11">
         <v>39801</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>10528</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>6021</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>11837</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11">
         <v>4799</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11">
         <v>2110</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N11">
         <v>2272</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11">
         <v>2234</v>
       </c>
-      <c r="P11"/>
-      <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11"/>
-      <c r="T11"/>
-      <c r="U11"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>64028</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>43798</v>
       </c>
-      <c r="E12" t="n">
-        <v>68.4044480539764</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E12">
+        <v>68.404448053976395</v>
+      </c>
+      <c r="F12">
         <v>1288</v>
       </c>
-      <c r="G12" t="n">
-        <v>2.94077355130371</v>
-      </c>
-      <c r="H12" t="n">
+      <c r="G12">
+        <v>2.9407735513037099</v>
+      </c>
+      <c r="H12">
         <v>42510</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>13517</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>3940</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12">
         <v>12913</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12">
         <v>5937</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12">
         <v>2154</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N12">
         <v>1748</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12">
         <v>2301</v>
       </c>
-      <c r="P12"/>
-      <c r="Q12"/>
-      <c r="R12"/>
-      <c r="S12"/>
-      <c r="T12"/>
-      <c r="U12"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>32</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>64379</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>43259</v>
       </c>
-      <c r="E13" t="n">
-        <v>67.1942714239115</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E13">
+        <v>67.194271423911502</v>
+      </c>
+      <c r="F13">
         <v>1129</v>
       </c>
-      <c r="G13" t="n">
-        <v>2.60986153170438</v>
-      </c>
-      <c r="H13" t="n">
+      <c r="G13">
+        <v>2.6098615317043801</v>
+      </c>
+      <c r="H13">
         <v>42130</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>11667</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13">
         <v>4765</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13">
         <v>12237</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13">
         <v>6898</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13">
         <v>2868</v>
       </c>
-      <c r="N13" t="n">
+      <c r="N13">
         <v>1515</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O13">
         <v>2139</v>
       </c>
-      <c r="P13"/>
-      <c r="Q13" t="n">
+      <c r="Q13">
         <v>41</v>
       </c>
-      <c r="R13"/>
-      <c r="S13"/>
-      <c r="T13"/>
-      <c r="U13"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>33</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>90420</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>62026</v>
       </c>
-      <c r="E14" t="n">
-        <v>68.5976553859766</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E14">
+        <v>68.597655385976594</v>
+      </c>
+      <c r="F14">
         <v>1528</v>
       </c>
-      <c r="G14" t="n">
-        <v>2.46348305549286</v>
-      </c>
-      <c r="H14" t="n">
+      <c r="G14">
+        <v>2.4634830554928602</v>
+      </c>
+      <c r="H14">
         <v>60498</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>21031</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>6951</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14">
         <v>16643</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14">
         <v>8626</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M14">
         <v>3315</v>
       </c>
-      <c r="N14" t="n">
+      <c r="N14">
         <v>3392</v>
       </c>
-      <c r="O14"/>
-      <c r="P14"/>
-      <c r="Q14" t="n">
+      <c r="Q14">
         <v>24</v>
       </c>
-      <c r="R14" t="n">
+      <c r="R14">
         <v>31</v>
       </c>
-      <c r="S14" t="n">
+      <c r="S14">
         <v>483</v>
       </c>
-      <c r="T14"/>
-      <c r="U14" t="n">
+      <c r="U14">
         <v>2</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>34</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>91034</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>62165</v>
       </c>
-      <c r="E15" t="n">
-        <v>68.2876727376585</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E15">
+        <v>68.287672737658497</v>
+      </c>
+      <c r="F15">
         <v>1181</v>
       </c>
-      <c r="G15" t="n">
-        <v>1.89978283600096</v>
-      </c>
-      <c r="H15" t="n">
+      <c r="G15">
+        <v>1.8997828360009601</v>
+      </c>
+      <c r="H15">
         <v>60984</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>17455</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>11107</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15">
         <v>15318</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L15">
         <v>6201</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M15">
         <v>3205</v>
       </c>
-      <c r="N15" t="n">
+      <c r="N15">
         <v>6138</v>
       </c>
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15" t="n">
+      <c r="Q15">
         <v>582</v>
       </c>
-      <c r="R15" t="n">
+      <c r="R15">
         <v>543</v>
       </c>
-      <c r="S15" t="n">
+      <c r="S15">
         <v>343</v>
       </c>
-      <c r="T15"/>
-      <c r="U15" t="n">
+      <c r="U15">
         <v>92</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>35</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>71757</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>46540</v>
       </c>
-      <c r="E16" t="n">
-        <v>64.8577839095837</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E16">
+        <v>64.857783909583702</v>
+      </c>
+      <c r="F16">
         <v>950</v>
       </c>
-      <c r="G16" t="n">
-        <v>2.04125483455092</v>
-      </c>
-      <c r="H16" t="n">
+      <c r="G16">
+        <v>2.0412548345509198</v>
+      </c>
+      <c r="H16">
         <v>45590</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>19101</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>7049</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16">
         <v>5160</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L16">
         <v>7306</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M16">
         <v>3077</v>
       </c>
-      <c r="N16" t="n">
+      <c r="N16">
         <v>1901</v>
       </c>
-      <c r="O16" t="n">
+      <c r="O16">
         <v>1397</v>
       </c>
-      <c r="P16"/>
-      <c r="Q16" t="n">
+      <c r="Q16">
         <v>599</v>
       </c>
-      <c r="R16"/>
-      <c r="S16"/>
-      <c r="T16"/>
-      <c r="U16"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>36</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>85109</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>61897</v>
       </c>
-      <c r="E17" t="n">
-        <v>72.7267386527864</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E17">
+        <v>72.726738652786395</v>
+      </c>
+      <c r="F17">
         <v>1314</v>
       </c>
-      <c r="G17" t="n">
-        <v>2.12288156130346</v>
-      </c>
-      <c r="H17" t="n">
+      <c r="G17">
+        <v>2.1228815613034602</v>
+      </c>
+      <c r="H17">
         <v>60583</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>24978</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17">
         <v>7878</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17">
         <v>7941</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L17">
         <v>10266</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M17">
         <v>4302</v>
       </c>
-      <c r="N17" t="n">
+      <c r="N17">
         <v>2347</v>
       </c>
-      <c r="O17" t="n">
+      <c r="O17">
         <v>2871</v>
       </c>
-      <c r="P17"/>
-      <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
-      <c r="T17"/>
-      <c r="U17"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>37</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>91206</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>54673</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>59.9445211937811</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>1605</v>
       </c>
-      <c r="G18" t="n">
-        <v>2.93563550564264</v>
-      </c>
-      <c r="H18" t="n">
+      <c r="G18">
+        <v>2.9356355056426402</v>
+      </c>
+      <c r="H18">
         <v>53068</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
         <v>18728</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18">
         <v>6711</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18">
         <v>11954</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L18">
         <v>8376</v>
       </c>
-      <c r="M18" t="n">
+      <c r="M18">
         <v>4287</v>
       </c>
-      <c r="N18" t="n">
+      <c r="N18">
         <v>2232</v>
       </c>
-      <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18" t="n">
+      <c r="S18">
         <v>780</v>
       </c>
-      <c r="T18"/>
-      <c r="U18"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>38</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>94231</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>59045</v>
       </c>
-      <c r="E19" t="n">
-        <v>62.6598465473146</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E19">
+        <v>62.659846547314601</v>
+      </c>
+      <c r="F19">
         <v>1423</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>2.41002625116437</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>57622</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19">
         <v>16743</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19">
         <v>8905</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19">
         <v>13551</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L19">
         <v>8634</v>
       </c>
-      <c r="M19" t="n">
+      <c r="M19">
         <v>3990</v>
       </c>
-      <c r="N19" t="n">
+      <c r="N19">
         <v>2473</v>
       </c>
-      <c r="O19" t="n">
+      <c r="O19">
         <v>2427</v>
       </c>
-      <c r="P19"/>
-      <c r="Q19" t="n">
+      <c r="Q19">
         <v>899</v>
       </c>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
-      <c r="U19"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>39</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>90603</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>61587</v>
       </c>
-      <c r="E20" t="n">
-        <v>67.9745703784643</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E20">
+        <v>67.974570378464307</v>
+      </c>
+      <c r="F20">
         <v>1162</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>1.88676181661714</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>60425</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20">
         <v>14645</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20">
         <v>12520</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20">
         <v>15610</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L20">
         <v>6425</v>
       </c>
-      <c r="M20" t="n">
+      <c r="M20">
         <v>3129</v>
       </c>
-      <c r="N20" t="n">
+      <c r="N20">
         <v>4847</v>
       </c>
-      <c r="O20" t="n">
+      <c r="O20">
         <v>2215</v>
       </c>
-      <c r="P20"/>
-      <c r="Q20" t="n">
+      <c r="Q20">
         <v>1034</v>
       </c>
-      <c r="R20"/>
-      <c r="S20"/>
-      <c r="T20"/>
-      <c r="U20"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>40</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>96294</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>67743</v>
       </c>
-      <c r="E21" t="n">
-        <v>70.3501775811577</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E21">
+        <v>70.350177581157695</v>
+      </c>
+      <c r="F21">
         <v>1297</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>1.91458896122109</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>66446</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21">
         <v>22305</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21">
         <v>8118</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K21">
         <v>17637</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L21">
         <v>9016</v>
       </c>
-      <c r="M21" t="n">
+      <c r="M21">
         <v>3470</v>
       </c>
-      <c r="N21" t="n">
+      <c r="N21">
         <v>2633</v>
       </c>
-      <c r="O21" t="n">
+      <c r="O21">
         <v>3223</v>
       </c>
-      <c r="P21"/>
-      <c r="Q21" t="n">
+      <c r="Q21">
         <v>44</v>
       </c>
-      <c r="R21"/>
-      <c r="S21"/>
-      <c r="T21"/>
-      <c r="U21"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>96207</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>66116</v>
       </c>
-      <c r="E22" t="n">
-        <v>68.7226501190142</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E22">
+        <v>68.722650119014205</v>
+      </c>
+      <c r="F22">
         <v>1836</v>
       </c>
-      <c r="G22" t="n">
-        <v>2.77693750378123</v>
-      </c>
-      <c r="H22" t="n">
+      <c r="G22">
+        <v>2.7769375037812298</v>
+      </c>
+      <c r="H22">
         <v>64280</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22">
         <v>19456</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22">
         <v>8266</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22">
         <v>16571</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L22">
         <v>9881</v>
       </c>
-      <c r="M22" t="n">
+      <c r="M22">
         <v>3982</v>
       </c>
-      <c r="N22" t="n">
+      <c r="N22">
         <v>2865</v>
       </c>
-      <c r="O22" t="n">
+      <c r="O22">
         <v>3259</v>
       </c>
-      <c r="P22"/>
-      <c r="Q22"/>
-      <c r="R22"/>
-      <c r="S22"/>
-      <c r="T22"/>
-      <c r="U22"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>42</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>64164</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>41090</v>
       </c>
-      <c r="E23" t="n">
-        <v>64.0390249984415</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E23">
+        <v>64.039024998441505</v>
+      </c>
+      <c r="F23">
         <v>1248</v>
       </c>
-      <c r="G23" t="n">
-        <v>3.03723533706498</v>
-      </c>
-      <c r="H23" t="n">
+      <c r="G23">
+        <v>3.0372353370649798</v>
+      </c>
+      <c r="H23">
         <v>39842</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23">
         <v>13676</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23">
         <v>5106</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K23">
         <v>7755</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L23">
         <v>5212</v>
       </c>
-      <c r="M23" t="n">
+      <c r="M23">
         <v>3958</v>
       </c>
-      <c r="N23" t="n">
+      <c r="N23">
         <v>1362</v>
       </c>
-      <c r="O23" t="n">
+      <c r="O23">
         <v>2366</v>
       </c>
-      <c r="P23"/>
-      <c r="Q23" t="n">
+      <c r="Q23">
         <v>407</v>
       </c>
-      <c r="R23"/>
-      <c r="S23"/>
-      <c r="T23"/>
-      <c r="U23"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>43</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>68051</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>44849</v>
       </c>
-      <c r="E24" t="n">
-        <v>65.9049830274353</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E24">
+        <v>65.904983027435307</v>
+      </c>
+      <c r="F24">
         <v>1239</v>
       </c>
-      <c r="G24" t="n">
-        <v>2.76260340252848</v>
-      </c>
-      <c r="H24" t="n">
+      <c r="G24">
+        <v>2.7626034025284798</v>
+      </c>
+      <c r="H24">
         <v>43610</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24">
         <v>13525</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J24">
         <v>5258</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K24">
         <v>12004</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L24">
         <v>6024</v>
       </c>
-      <c r="M24" t="n">
+      <c r="M24">
         <v>3057</v>
       </c>
-      <c r="N24" t="n">
+      <c r="N24">
         <v>1615</v>
       </c>
-      <c r="O24" t="n">
+      <c r="O24">
         <v>2054</v>
       </c>
-      <c r="P24"/>
-      <c r="Q24" t="n">
+      <c r="Q24">
         <v>27</v>
       </c>
-      <c r="R24"/>
-      <c r="S24"/>
-      <c r="T24"/>
-      <c r="U24" t="n">
+      <c r="U24">
         <v>46</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>44</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>85720</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>61255</v>
       </c>
-      <c r="E25" t="n">
-        <v>71.4594027064862</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E25">
+        <v>71.459402706486202</v>
+      </c>
+      <c r="F25">
         <v>1141</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>1.86270508529916</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
         <v>60114</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25">
         <v>22495</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J25">
         <v>12473</v>
       </c>
-      <c r="K25" t="n">
+      <c r="K25">
         <v>9518</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L25">
         <v>6723</v>
       </c>
-      <c r="M25" t="n">
+      <c r="M25">
         <v>5389</v>
       </c>
-      <c r="N25" t="n">
+      <c r="N25">
         <v>2858</v>
       </c>
-      <c r="O25"/>
-      <c r="P25"/>
-      <c r="Q25"/>
-      <c r="R25" t="n">
+      <c r="R25">
         <v>658</v>
       </c>
-      <c r="S25"/>
-      <c r="T25"/>
-      <c r="U25"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>45</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>77298</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>57196</v>
       </c>
-      <c r="E26" t="n">
-        <v>73.9941525007115</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E26">
+        <v>73.994152500711493</v>
+      </c>
+      <c r="F26">
         <v>982</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>1.71690327994965</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
         <v>56214</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26">
         <v>18815</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J26">
         <v>12147</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K26">
         <v>8451</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L26">
         <v>5689</v>
       </c>
-      <c r="M26" t="n">
+      <c r="M26">
         <v>8057</v>
       </c>
-      <c r="N26" t="n">
+      <c r="N26">
         <v>2086</v>
       </c>
-      <c r="O26"/>
-      <c r="P26" t="n">
+      <c r="P26">
         <v>471</v>
       </c>
-      <c r="Q26"/>
-      <c r="R26" t="n">
+      <c r="R26">
         <v>498</v>
       </c>
-      <c r="S26"/>
-      <c r="T26"/>
-      <c r="U26"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>46</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>80537</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>57511</v>
       </c>
-      <c r="E27" t="n">
-        <v>71.4094143064678</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E27">
+        <v>71.409414306467795</v>
+      </c>
+      <c r="F27">
         <v>1257</v>
       </c>
-      <c r="G27" t="n">
-        <v>2.18566882857193</v>
-      </c>
-      <c r="H27" t="n">
+      <c r="G27">
+        <v>2.1856688285719299</v>
+      </c>
+      <c r="H27">
         <v>56254</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I27">
         <v>17076</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J27">
         <v>11851</v>
       </c>
-      <c r="K27" t="n">
+      <c r="K27">
         <v>11455</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L27">
         <v>6039</v>
       </c>
-      <c r="M27" t="n">
+      <c r="M27">
         <v>4475</v>
       </c>
-      <c r="N27" t="n">
+      <c r="N27">
         <v>2377</v>
       </c>
-      <c r="O27" t="n">
+      <c r="O27">
         <v>2272</v>
       </c>
-      <c r="P27"/>
-      <c r="Q27" t="n">
+      <c r="Q27">
         <v>709</v>
       </c>
-      <c r="R27"/>
-      <c r="S27"/>
-      <c r="T27"/>
-      <c r="U27"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>47</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>89152</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>58400</v>
       </c>
-      <c r="E28" t="n">
-        <v>65.5061019382627</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E28">
+        <v>65.506101938262702</v>
+      </c>
+      <c r="F28">
         <v>1600</v>
       </c>
-      <c r="G28" t="n">
-        <v>2.73972602739726</v>
-      </c>
-      <c r="H28" t="n">
+      <c r="G28">
+        <v>2.7397260273972601</v>
+      </c>
+      <c r="H28">
         <v>56800</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I28">
         <v>16262</v>
       </c>
-      <c r="J28" t="n">
+      <c r="J28">
         <v>7943</v>
       </c>
-      <c r="K28" t="n">
+      <c r="K28">
         <v>13053</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L28">
         <v>10147</v>
       </c>
-      <c r="M28" t="n">
+      <c r="M28">
         <v>3614</v>
       </c>
-      <c r="N28" t="n">
+      <c r="N28">
         <v>2411</v>
       </c>
-      <c r="O28" t="n">
+      <c r="O28">
         <v>3254</v>
       </c>
-      <c r="P28"/>
-      <c r="Q28"/>
-      <c r="R28"/>
-      <c r="S28" t="n">
+      <c r="S28">
         <v>116</v>
       </c>
-      <c r="T28"/>
-      <c r="U28"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>48</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>77601</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>52903</v>
       </c>
-      <c r="E29" t="n">
-        <v>68.1730905529568</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E29">
+        <v>68.173090552956793</v>
+      </c>
+      <c r="F29">
         <v>1376</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>2.60098671152865</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
         <v>51527</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I29">
         <v>15780</v>
       </c>
-      <c r="J29" t="n">
+      <c r="J29">
         <v>8302</v>
       </c>
-      <c r="K29" t="n">
+      <c r="K29">
         <v>11878</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L29">
         <v>6913</v>
       </c>
-      <c r="M29" t="n">
+      <c r="M29">
         <v>3798</v>
       </c>
-      <c r="N29" t="n">
+      <c r="N29">
         <v>2172</v>
       </c>
-      <c r="O29" t="n">
+      <c r="O29">
         <v>2684</v>
       </c>
-      <c r="P29"/>
-      <c r="Q29"/>
-      <c r="R29"/>
-      <c r="S29"/>
-      <c r="T29"/>
-      <c r="U29"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>49</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>65564</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>46585</v>
       </c>
-      <c r="E30" t="n">
-        <v>71.0527118540662</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E30">
+        <v>71.052711854066203</v>
+      </c>
+      <c r="F30">
         <v>1206</v>
       </c>
-      <c r="G30" t="n">
-        <v>2.58881614253515</v>
-      </c>
-      <c r="H30" t="n">
+      <c r="G30">
+        <v>2.5888161425351499</v>
+      </c>
+      <c r="H30">
         <v>45379</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I30">
         <v>15772</v>
       </c>
-      <c r="J30" t="n">
+      <c r="J30">
         <v>8005</v>
       </c>
-      <c r="K30" t="n">
+      <c r="K30">
         <v>10058</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L30">
         <v>5655</v>
       </c>
-      <c r="M30" t="n">
+      <c r="M30">
         <v>3849</v>
       </c>
-      <c r="N30" t="n">
+      <c r="N30">
         <v>2040</v>
       </c>
-      <c r="O30"/>
-      <c r="P30"/>
-      <c r="Q30"/>
-      <c r="R30"/>
-      <c r="S30"/>
-      <c r="T30"/>
-      <c r="U30"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>50</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>72079</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>52804</v>
       </c>
-      <c r="E31" t="n">
-        <v>73.258508025916</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E31">
+        <v>73.258508025916001</v>
+      </c>
+      <c r="F31">
         <v>1124</v>
       </c>
-      <c r="G31" t="n">
-        <v>2.12862661919552</v>
-      </c>
-      <c r="H31" t="n">
+      <c r="G31">
+        <v>2.1286266191955199</v>
+      </c>
+      <c r="H31">
         <v>51680</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I31">
         <v>18000</v>
       </c>
-      <c r="J31" t="n">
+      <c r="J31">
         <v>9931</v>
       </c>
-      <c r="K31" t="n">
+      <c r="K31">
         <v>10250</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L31">
         <v>6478</v>
       </c>
-      <c r="M31" t="n">
+      <c r="M31">
         <v>4403</v>
       </c>
-      <c r="N31" t="n">
+      <c r="N31">
         <v>2618</v>
       </c>
-      <c r="O31"/>
-      <c r="P31"/>
-      <c r="Q31"/>
-      <c r="R31"/>
-      <c r="S31"/>
-      <c r="T31"/>
-      <c r="U31"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>51</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>93006</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>60082</v>
       </c>
-      <c r="E32" t="n">
-        <v>64.6001333247317</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E32">
+        <v>64.600133324731701</v>
+      </c>
+      <c r="F32">
         <v>1116</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>1.85746146932526</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
         <v>58966</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I32">
         <v>16217</v>
       </c>
-      <c r="J32" t="n">
+      <c r="J32">
         <v>13099</v>
       </c>
-      <c r="K32" t="n">
+      <c r="K32">
         <v>11725</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L32">
         <v>6521</v>
       </c>
-      <c r="M32" t="n">
+      <c r="M32">
         <v>4602</v>
       </c>
-      <c r="N32" t="n">
+      <c r="N32">
         <v>4867</v>
       </c>
-      <c r="O32" t="n">
+      <c r="O32">
         <v>1147</v>
       </c>
-      <c r="P32"/>
-      <c r="Q32" t="n">
+      <c r="Q32">
         <v>667</v>
       </c>
-      <c r="R32"/>
-      <c r="S32"/>
-      <c r="T32"/>
-      <c r="U32" t="n">
+      <c r="U32">
         <v>121</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>52</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>93045</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>61356</v>
       </c>
-      <c r="E33" t="n">
-        <v>65.9422859906497</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E33">
+        <v>65.942285990649694</v>
+      </c>
+      <c r="F33">
         <v>1343</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>2.18886498467957</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
         <v>60013</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I33">
         <v>17456</v>
       </c>
-      <c r="J33" t="n">
+      <c r="J33">
         <v>11523</v>
       </c>
-      <c r="K33" t="n">
+      <c r="K33">
         <v>13388</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L33">
         <v>7489</v>
       </c>
-      <c r="M33" t="n">
+      <c r="M33">
         <v>4715</v>
       </c>
-      <c r="N33" t="n">
+      <c r="N33">
         <v>3661</v>
       </c>
-      <c r="O33" t="n">
+      <c r="O33">
         <v>1644</v>
       </c>
-      <c r="P33"/>
-      <c r="Q33" t="n">
+      <c r="Q33">
         <v>119</v>
       </c>
-      <c r="R33"/>
-      <c r="S33"/>
-      <c r="T33"/>
-      <c r="U33" t="n">
+      <c r="U33">
         <v>18</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>53</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>81290</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>59790</v>
       </c>
-      <c r="E34" t="n">
-        <v>73.5514823471522</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E34">
+        <v>73.551482347152202</v>
+      </c>
+      <c r="F34">
         <v>1095</v>
       </c>
-      <c r="G34" t="n">
-        <v>1.8314099347717</v>
-      </c>
-      <c r="H34" t="n">
+      <c r="G34">
+        <v>1.8314099347717001</v>
+      </c>
+      <c r="H34">
         <v>58695</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I34">
         <v>20765</v>
       </c>
-      <c r="J34" t="n">
+      <c r="J34">
         <v>11414</v>
       </c>
-      <c r="K34" t="n">
+      <c r="K34">
         <v>10968</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L34">
         <v>6141</v>
       </c>
-      <c r="M34" t="n">
+      <c r="M34">
         <v>5072</v>
       </c>
-      <c r="N34" t="n">
+      <c r="N34">
         <v>2252</v>
       </c>
-      <c r="O34" t="n">
+      <c r="O34">
         <v>2083</v>
       </c>
-      <c r="P34"/>
-      <c r="Q34"/>
-      <c r="R34"/>
-      <c r="S34"/>
-      <c r="T34"/>
-      <c r="U34"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>54</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>83170</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>59290</v>
       </c>
-      <c r="E35" t="n">
-        <v>71.2877239389203</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E35">
+        <v>71.287723938920294</v>
+      </c>
+      <c r="F35">
         <v>1160</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>1.95648507336819</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
         <v>58130</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I35">
         <v>19520</v>
       </c>
-      <c r="J35" t="n">
+      <c r="J35">
         <v>10830</v>
       </c>
-      <c r="K35" t="n">
+      <c r="K35">
         <v>12178</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L35">
         <v>6469</v>
       </c>
-      <c r="M35" t="n">
+      <c r="M35">
         <v>4100</v>
       </c>
-      <c r="N35" t="n">
+      <c r="N35">
         <v>2831</v>
       </c>
-      <c r="O35" t="n">
+      <c r="O35">
         <v>2202</v>
       </c>
-      <c r="P35"/>
-      <c r="Q35"/>
-      <c r="R35"/>
-      <c r="S35"/>
-      <c r="T35"/>
-      <c r="U35"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>55</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>65195</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>41809</v>
       </c>
-      <c r="E36" t="n">
-        <v>64.1291510085129</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E36">
+        <v>64.129151008512906</v>
+      </c>
+      <c r="F36">
         <v>767</v>
       </c>
-      <c r="G36" t="n">
-        <v>1.83453323447105</v>
-      </c>
-      <c r="H36" t="n">
+      <c r="G36">
+        <v>1.8345332344710501</v>
+      </c>
+      <c r="H36">
         <v>41042</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I36">
         <v>8722</v>
       </c>
-      <c r="J36" t="n">
+      <c r="J36">
         <v>9974</v>
       </c>
-      <c r="K36" t="n">
+      <c r="K36">
         <v>8838</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L36">
         <v>3328</v>
       </c>
-      <c r="M36" t="n">
+      <c r="M36">
         <v>2920</v>
       </c>
-      <c r="N36" t="n">
+      <c r="N36">
         <v>5801</v>
       </c>
-      <c r="O36" t="n">
+      <c r="O36">
         <v>839</v>
       </c>
-      <c r="P36"/>
-      <c r="Q36" t="n">
+      <c r="Q36">
         <v>620</v>
       </c>
-      <c r="R36"/>
-      <c r="S36"/>
-      <c r="T36"/>
-      <c r="U36"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>37</v>
       </c>
       <c r="B37" t="s">
         <v>56</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>64818</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>42459</v>
       </c>
-      <c r="E37" t="n">
-        <v>65.504952328057</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="E37">
+        <v>65.504952328057001</v>
+      </c>
+      <c r="F37">
         <v>681</v>
       </c>
-      <c r="G37" t="n">
-        <v>1.60390023316611</v>
-      </c>
-      <c r="H37" t="n">
+      <c r="G37">
+        <v>1.6039002331661101</v>
+      </c>
+      <c r="H37">
         <v>41778</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I37">
         <v>11163</v>
       </c>
-      <c r="J37" t="n">
+      <c r="J37">
         <v>10829</v>
       </c>
-      <c r="K37" t="n">
+      <c r="K37">
         <v>8427</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L37">
         <v>3505</v>
       </c>
-      <c r="M37" t="n">
+      <c r="M37">
         <v>2865</v>
       </c>
-      <c r="N37" t="n">
+      <c r="N37">
         <v>3337</v>
       </c>
-      <c r="O37" t="n">
+      <c r="O37">
         <v>1103</v>
       </c>
-      <c r="P37"/>
-      <c r="Q37" t="n">
+      <c r="Q37">
         <v>549</v>
       </c>
-      <c r="R37"/>
-      <c r="S37"/>
-      <c r="T37"/>
-      <c r="U37"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>38</v>
       </c>
       <c r="B38" t="s">
         <v>57</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>71055</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>51389</v>
       </c>
-      <c r="E38" t="n">
-        <v>72.3228484976427</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E38">
+        <v>72.322848497642696</v>
+      </c>
+      <c r="F38">
         <v>719</v>
       </c>
-      <c r="G38" t="n">
-        <v>1.39913210998463</v>
-      </c>
-      <c r="H38" t="n">
+      <c r="G38">
+        <v>1.3991321099846299</v>
+      </c>
+      <c r="H38">
         <v>50670</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I38">
         <v>9997</v>
       </c>
-      <c r="J38" t="n">
+      <c r="J38">
         <v>17852</v>
       </c>
-      <c r="K38" t="n">
+      <c r="K38">
         <v>10221</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L38">
         <v>2754</v>
       </c>
-      <c r="M38" t="n">
+      <c r="M38">
         <v>3145</v>
       </c>
-      <c r="N38" t="n">
+      <c r="N38">
         <v>5627</v>
       </c>
-      <c r="O38"/>
-      <c r="P38"/>
-      <c r="Q38" t="n">
+      <c r="Q38">
         <v>721</v>
       </c>
-      <c r="R38" t="n">
+      <c r="R38">
         <v>353</v>
       </c>
-      <c r="S38"/>
-      <c r="T38"/>
-      <c r="U38"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>39</v>
       </c>
       <c r="B39" t="s">
         <v>58</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>71985</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>46913</v>
       </c>
-      <c r="E39" t="n">
-        <v>65.170521636452</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E39">
+        <v>65.170521636451994</v>
+      </c>
+      <c r="F39">
         <v>945</v>
       </c>
-      <c r="G39" t="n">
-        <v>2.01436701980261</v>
-      </c>
-      <c r="H39" t="n">
+      <c r="G39">
+        <v>2.0143670198026098</v>
+      </c>
+      <c r="H39">
         <v>45968</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I39">
         <v>13290</v>
       </c>
-      <c r="J39" t="n">
+      <c r="J39">
         <v>9696</v>
       </c>
-      <c r="K39" t="n">
+      <c r="K39">
         <v>9969</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L39">
         <v>4443</v>
       </c>
-      <c r="M39" t="n">
+      <c r="M39">
         <v>3189</v>
       </c>
-      <c r="N39" t="n">
+      <c r="N39">
         <v>3374</v>
       </c>
-      <c r="O39" t="n">
+      <c r="O39">
         <v>1286</v>
       </c>
-      <c r="P39"/>
-      <c r="Q39" t="n">
+      <c r="Q39">
         <v>587</v>
       </c>
-      <c r="R39"/>
-      <c r="S39"/>
-      <c r="T39"/>
-      <c r="U39" t="n">
+      <c r="U39">
         <v>134</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A40">
         <v>40</v>
       </c>
       <c r="B40" t="s">
         <v>59</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>93461</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>66193</v>
       </c>
-      <c r="E40" t="n">
-        <v>70.8241940488546</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="E40">
+        <v>70.824194048854594</v>
+      </c>
+      <c r="F40">
         <v>1654</v>
       </c>
-      <c r="G40" t="n">
-        <v>2.4987536446452</v>
-      </c>
-      <c r="H40" t="n">
+      <c r="G40">
+        <v>2.4987536446452001</v>
+      </c>
+      <c r="H40">
         <v>64539</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I40">
         <v>17685</v>
       </c>
-      <c r="J40" t="n">
+      <c r="J40">
         <v>10249</v>
       </c>
-      <c r="K40" t="n">
+      <c r="K40">
         <v>16495</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L40">
         <v>9811</v>
       </c>
-      <c r="M40" t="n">
+      <c r="M40">
         <v>4043</v>
       </c>
-      <c r="N40" t="n">
+      <c r="N40">
         <v>2806</v>
       </c>
-      <c r="O40" t="n">
+      <c r="O40">
         <v>2768</v>
       </c>
-      <c r="P40"/>
-      <c r="Q40" t="n">
+      <c r="Q40">
         <v>116</v>
       </c>
-      <c r="R40"/>
-      <c r="S40" t="n">
+      <c r="S40">
         <v>566</v>
       </c>
-      <c r="T40"/>
-      <c r="U40"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A41">
         <v>41</v>
       </c>
       <c r="B41" t="s">
         <v>60</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>91437</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>56677</v>
       </c>
-      <c r="E41" t="n">
-        <v>61.9847545304417</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="E41">
+        <v>61.984754530441698</v>
+      </c>
+      <c r="F41">
         <v>1457</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>2.57070769447924</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41">
         <v>55220</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I41">
         <v>15347</v>
       </c>
-      <c r="J41" t="n">
+      <c r="J41">
         <v>9445</v>
       </c>
-      <c r="K41" t="n">
+      <c r="K41">
         <v>12074</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L41">
         <v>8449</v>
       </c>
-      <c r="M41" t="n">
+      <c r="M41">
         <v>4236</v>
       </c>
-      <c r="N41" t="n">
+      <c r="N41">
         <v>3071</v>
       </c>
-      <c r="O41" t="n">
+      <c r="O41">
         <v>1863</v>
       </c>
-      <c r="P41"/>
-      <c r="Q41" t="n">
+      <c r="Q41">
         <v>735</v>
       </c>
-      <c r="R41"/>
-      <c r="S41"/>
-      <c r="T41"/>
-      <c r="U41"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A42">
         <v>42</v>
       </c>
       <c r="B42" t="s">
         <v>61</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>89841</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>61158</v>
       </c>
-      <c r="E42" t="n">
-        <v>68.0735966874812</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="E42">
+        <v>68.073596687481199</v>
+      </c>
+      <c r="F42">
         <v>1701</v>
       </c>
-      <c r="G42" t="n">
-        <v>2.78132051407829</v>
-      </c>
-      <c r="H42" t="n">
+      <c r="G42">
+        <v>2.7813205140782902</v>
+      </c>
+      <c r="H42">
         <v>59457</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I42">
         <v>17328</v>
       </c>
-      <c r="J42" t="n">
+      <c r="J42">
         <v>9291</v>
       </c>
-      <c r="K42" t="n">
+      <c r="K42">
         <v>12564</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L42">
         <v>10078</v>
       </c>
-      <c r="M42" t="n">
+      <c r="M42">
         <v>3853</v>
       </c>
-      <c r="N42" t="n">
+      <c r="N42">
         <v>2549</v>
       </c>
-      <c r="O42" t="n">
+      <c r="O42">
         <v>3261</v>
       </c>
-      <c r="P42"/>
-      <c r="Q42"/>
-      <c r="R42"/>
-      <c r="S42" t="n">
+      <c r="S42">
         <v>533</v>
       </c>
-      <c r="T42"/>
-      <c r="U42"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A43">
         <v>43</v>
       </c>
       <c r="B43" t="s">
         <v>62</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>66776</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>39018</v>
       </c>
-      <c r="E43" t="n">
-        <v>58.4311728764826</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="E43">
+        <v>58.431172876482599</v>
+      </c>
+      <c r="F43">
         <v>832</v>
       </c>
-      <c r="G43" t="n">
-        <v>2.13234917217694</v>
-      </c>
-      <c r="H43" t="n">
+      <c r="G43">
+        <v>2.1323491721769399</v>
+      </c>
+      <c r="H43">
         <v>38186</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I43">
         <v>8597</v>
       </c>
-      <c r="J43" t="n">
+      <c r="J43">
         <v>10507</v>
       </c>
-      <c r="K43" t="n">
+      <c r="K43">
         <v>7159</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L43">
         <v>4871</v>
       </c>
-      <c r="M43" t="n">
+      <c r="M43">
         <v>2197</v>
       </c>
-      <c r="N43" t="n">
+      <c r="N43">
         <v>3170</v>
       </c>
-      <c r="O43" t="n">
+      <c r="O43">
         <v>1070</v>
       </c>
-      <c r="P43"/>
-      <c r="Q43"/>
-      <c r="R43" t="n">
+      <c r="R43">
         <v>481</v>
       </c>
-      <c r="S43"/>
-      <c r="T43"/>
-      <c r="U43" t="n">
+      <c r="U43">
         <v>134</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A44">
         <v>44</v>
       </c>
       <c r="B44" t="s">
         <v>63</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>85153</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>57748</v>
       </c>
-      <c r="E44" t="n">
-        <v>67.8167533733398</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="E44">
+        <v>67.816753373339793</v>
+      </c>
+      <c r="F44">
         <v>1394</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>2.41393641338228</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44">
         <v>56354</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I44">
         <v>16665</v>
       </c>
-      <c r="J44" t="n">
+      <c r="J44">
         <v>12294</v>
       </c>
-      <c r="K44" t="n">
+      <c r="K44">
         <v>10723</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L44">
         <v>6223</v>
       </c>
-      <c r="M44" t="n">
+      <c r="M44">
         <v>4227</v>
       </c>
-      <c r="N44" t="n">
+      <c r="N44">
         <v>3045</v>
       </c>
-      <c r="O44" t="n">
+      <c r="O44">
         <v>2088</v>
       </c>
-      <c r="P44"/>
-      <c r="Q44"/>
-      <c r="R44" t="n">
+      <c r="R44">
         <v>446</v>
       </c>
-      <c r="S44"/>
-      <c r="T44"/>
-      <c r="U44" t="n">
+      <c r="U44">
         <v>643</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="n">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A45">
         <v>45</v>
       </c>
       <c r="B45" t="s">
         <v>64</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>67242</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>45116</v>
       </c>
-      <c r="E45" t="n">
-        <v>67.0949704054014</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="E45">
+        <v>67.094970405401398</v>
+      </c>
+      <c r="F45">
         <v>1092</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>2.42042734284954</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45">
         <v>44024</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I45">
         <v>15032</v>
       </c>
-      <c r="J45" t="n">
+      <c r="J45">
         <v>7795</v>
       </c>
-      <c r="K45" t="n">
+      <c r="K45">
         <v>7681</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L45">
         <v>5987</v>
       </c>
-      <c r="M45" t="n">
+      <c r="M45">
         <v>2475</v>
       </c>
-      <c r="N45" t="n">
+      <c r="N45">
         <v>2110</v>
       </c>
-      <c r="O45" t="n">
+      <c r="O45">
         <v>2316</v>
       </c>
-      <c r="P45"/>
-      <c r="Q45" t="n">
+      <c r="Q45">
         <v>389</v>
       </c>
-      <c r="R45"/>
-      <c r="S45"/>
-      <c r="T45"/>
-      <c r="U45" t="n">
+      <c r="U45">
         <v>239</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="n">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A46">
         <v>46</v>
       </c>
       <c r="B46" t="s">
         <v>65</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>84278</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>60413</v>
       </c>
-      <c r="E46" t="n">
-        <v>71.6830014950521</v>
-      </c>
-      <c r="F46" t="n">
+      <c r="E46">
+        <v>71.683001495052096</v>
+      </c>
+      <c r="F46">
         <v>1357</v>
       </c>
-      <c r="G46" t="n">
-        <v>2.24620528694155</v>
-      </c>
-      <c r="H46" t="n">
+      <c r="G46">
+        <v>2.2462052869415499</v>
+      </c>
+      <c r="H46">
         <v>59056</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I46">
         <v>19090</v>
       </c>
-      <c r="J46" t="n">
+      <c r="J46">
         <v>11256</v>
       </c>
-      <c r="K46" t="n">
+      <c r="K46">
         <v>9730</v>
       </c>
-      <c r="L46" t="n">
+      <c r="L46">
         <v>7611</v>
       </c>
-      <c r="M46" t="n">
+      <c r="M46">
         <v>6051</v>
       </c>
-      <c r="N46" t="n">
+      <c r="N46">
         <v>2675</v>
       </c>
-      <c r="O46" t="n">
+      <c r="O46">
         <v>2643</v>
       </c>
-      <c r="P46"/>
-      <c r="Q46"/>
-      <c r="R46"/>
-      <c r="S46"/>
-      <c r="T46"/>
-      <c r="U46"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A47">
         <v>47</v>
       </c>
       <c r="B47" t="s">
         <v>66</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>82267</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>51237</v>
       </c>
-      <c r="E47" t="n">
-        <v>62.2813521825276</v>
-      </c>
-      <c r="F47" t="n">
+      <c r="E47">
+        <v>62.281352182527598</v>
+      </c>
+      <c r="F47">
         <v>1482</v>
       </c>
-      <c r="G47" t="n">
-        <v>2.89244100942678</v>
-      </c>
-      <c r="H47" t="n">
+      <c r="G47">
+        <v>2.8924410094267801</v>
+      </c>
+      <c r="H47">
         <v>49755</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I47">
         <v>13009</v>
       </c>
-      <c r="J47" t="n">
+      <c r="J47">
         <v>9107</v>
       </c>
-      <c r="K47" t="n">
+      <c r="K47">
         <v>12261</v>
       </c>
-      <c r="L47" t="n">
+      <c r="L47">
         <v>7285</v>
       </c>
-      <c r="M47" t="n">
+      <c r="M47">
         <v>2580</v>
       </c>
-      <c r="N47" t="n">
+      <c r="N47">
         <v>3091</v>
       </c>
-      <c r="O47" t="n">
+      <c r="O47">
         <v>2422</v>
       </c>
-      <c r="P47"/>
-      <c r="Q47"/>
-      <c r="R47"/>
-      <c r="S47"/>
-      <c r="T47"/>
-      <c r="U47"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A48">
         <v>48</v>
       </c>
       <c r="B48" t="s">
         <v>67</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>91858</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>62870</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>68.4425961810621</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>1585</v>
       </c>
-      <c r="G48" t="n">
-        <v>2.5210752346111</v>
-      </c>
-      <c r="H48" t="n">
+      <c r="G48">
+        <v>2.5210752346111001</v>
+      </c>
+      <c r="H48">
         <v>61285</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I48">
         <v>16437</v>
       </c>
-      <c r="J48" t="n">
+      <c r="J48">
         <v>10549</v>
       </c>
-      <c r="K48" t="n">
+      <c r="K48">
         <v>16090</v>
       </c>
-      <c r="L48" t="n">
+      <c r="L48">
         <v>7389</v>
       </c>
-      <c r="M48" t="n">
+      <c r="M48">
         <v>3545</v>
       </c>
-      <c r="N48" t="n">
+      <c r="N48">
         <v>3588</v>
       </c>
-      <c r="O48" t="n">
+      <c r="O48">
         <v>3687</v>
       </c>
-      <c r="P48"/>
-      <c r="Q48"/>
-      <c r="R48"/>
-      <c r="S48"/>
-      <c r="T48"/>
-      <c r="U48"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A49">
         <v>49</v>
       </c>
       <c r="B49" t="s">
         <v>68</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>68007</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>47653</v>
       </c>
-      <c r="E49" t="n">
-        <v>70.0707280132928</v>
-      </c>
-      <c r="F49" t="n">
+      <c r="E49">
+        <v>70.070728013292793</v>
+      </c>
+      <c r="F49">
         <v>901</v>
       </c>
-      <c r="G49" t="n">
-        <v>1.89075189389965</v>
-      </c>
-      <c r="H49" t="n">
+      <c r="G49">
+        <v>1.8907518938996499</v>
+      </c>
+      <c r="H49">
         <v>46752</v>
       </c>
-      <c r="I49" t="n">
+      <c r="I49">
         <v>7845</v>
       </c>
-      <c r="J49" t="n">
+      <c r="J49">
         <v>14612</v>
       </c>
-      <c r="K49" t="n">
+      <c r="K49">
         <v>11734</v>
       </c>
-      <c r="L49" t="n">
+      <c r="L49">
         <v>3964</v>
       </c>
-      <c r="M49" t="n">
+      <c r="M49">
         <v>2922</v>
       </c>
-      <c r="N49" t="n">
+      <c r="N49">
         <v>4415</v>
       </c>
-      <c r="O49"/>
-      <c r="P49"/>
-      <c r="Q49" t="n">
+      <c r="Q49">
         <v>849</v>
       </c>
-      <c r="R49"/>
-      <c r="S49" t="n">
+      <c r="S49">
         <v>411</v>
       </c>
-      <c r="T49"/>
-      <c r="U49"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A50">
         <v>50</v>
       </c>
       <c r="B50" t="s">
         <v>69</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>90112</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>64856</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>71.97265625</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>1619</v>
       </c>
-      <c r="G50" t="n">
-        <v>2.49629949426422</v>
-      </c>
-      <c r="H50" t="n">
+      <c r="G50">
+        <v>2.4962994942642198</v>
+      </c>
+      <c r="H50">
         <v>63237</v>
       </c>
-      <c r="I50" t="n">
+      <c r="I50">
         <v>15509</v>
       </c>
-      <c r="J50" t="n">
+      <c r="J50">
         <v>14360</v>
       </c>
-      <c r="K50" t="n">
+      <c r="K50">
         <v>17706</v>
       </c>
-      <c r="L50" t="n">
+      <c r="L50">
         <v>6325</v>
       </c>
-      <c r="M50" t="n">
+      <c r="M50">
         <v>4317</v>
       </c>
-      <c r="N50" t="n">
+      <c r="N50">
         <v>4477</v>
       </c>
-      <c r="O50" t="n">
+      <c r="O50">
         <v>543</v>
       </c>
-      <c r="P50"/>
-      <c r="Q50"/>
-      <c r="R50"/>
-      <c r="S50"/>
-      <c r="T50"/>
-      <c r="U50"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A51">
         <v>51</v>
       </c>
       <c r="B51" t="s">
         <v>70</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>82544</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>57113</v>
       </c>
-      <c r="E51" t="n">
-        <v>69.1909769335142</v>
-      </c>
-      <c r="F51" t="n">
+      <c r="E51">
+        <v>69.190976933514193</v>
+      </c>
+      <c r="F51">
         <v>1367</v>
       </c>
-      <c r="G51" t="n">
-        <v>2.39350060406562</v>
-      </c>
-      <c r="H51" t="n">
+      <c r="G51">
+        <v>2.3935006040656202</v>
+      </c>
+      <c r="H51">
         <v>55746</v>
       </c>
-      <c r="I51" t="n">
+      <c r="I51">
         <v>14333</v>
       </c>
-      <c r="J51" t="n">
+      <c r="J51">
         <v>11037</v>
       </c>
-      <c r="K51" t="n">
+      <c r="K51">
         <v>15540</v>
       </c>
-      <c r="L51" t="n">
+      <c r="L51">
         <v>6241</v>
       </c>
-      <c r="M51" t="n">
+      <c r="M51">
         <v>3695</v>
       </c>
-      <c r="N51" t="n">
+      <c r="N51">
         <v>2831</v>
       </c>
-      <c r="O51" t="n">
+      <c r="O51">
         <v>2069</v>
       </c>
-      <c r="P51"/>
-      <c r="Q51"/>
-      <c r="R51"/>
-      <c r="S51"/>
-      <c r="T51"/>
-      <c r="U51"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A52">
         <v>52</v>
       </c>
       <c r="B52" t="s">
         <v>71</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>78307</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>55316</v>
       </c>
-      <c r="E52" t="n">
-        <v>70.6399172487773</v>
-      </c>
-      <c r="F52" t="n">
+      <c r="E52">
+        <v>70.639917248777294</v>
+      </c>
+      <c r="F52">
         <v>1380</v>
       </c>
-      <c r="G52" t="n">
-        <v>2.49475739388242</v>
-      </c>
-      <c r="H52" t="n">
+      <c r="G52">
+        <v>2.4947573938824199</v>
+      </c>
+      <c r="H52">
         <v>53936</v>
       </c>
-      <c r="I52" t="n">
+      <c r="I52">
         <v>16436</v>
       </c>
-      <c r="J52" t="n">
+      <c r="J52">
         <v>9960</v>
       </c>
-      <c r="K52" t="n">
+      <c r="K52">
         <v>12366</v>
       </c>
-      <c r="L52" t="n">
+      <c r="L52">
         <v>6393</v>
       </c>
-      <c r="M52" t="n">
+      <c r="M52">
         <v>3687</v>
       </c>
-      <c r="N52" t="n">
+      <c r="N52">
         <v>2798</v>
       </c>
-      <c r="O52" t="n">
+      <c r="O52">
         <v>2296</v>
       </c>
-      <c r="P52"/>
-      <c r="Q52"/>
-      <c r="R52"/>
-      <c r="S52"/>
-      <c r="T52"/>
-      <c r="U52"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A53">
         <v>53</v>
       </c>
       <c r="B53" t="s">
         <v>72</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>83663</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>55095</v>
       </c>
-      <c r="E53" t="n">
-        <v>65.853483618804</v>
-      </c>
-      <c r="F53" t="n">
+      <c r="E53">
+        <v>65.853483618804006</v>
+      </c>
+      <c r="F53">
         <v>1711</v>
       </c>
-      <c r="G53" t="n">
-        <v>3.10554496778292</v>
-      </c>
-      <c r="H53" t="n">
+      <c r="G53">
+        <v>3.1055449677829201</v>
+      </c>
+      <c r="H53">
         <v>53384</v>
       </c>
-      <c r="I53" t="n">
+      <c r="I53">
         <v>15156</v>
       </c>
-      <c r="J53" t="n">
+      <c r="J53">
         <v>7941</v>
       </c>
-      <c r="K53" t="n">
+      <c r="K53">
         <v>14701</v>
       </c>
-      <c r="L53" t="n">
+      <c r="L53">
         <v>7633</v>
       </c>
-      <c r="M53" t="n">
+      <c r="M53">
         <v>4975</v>
       </c>
-      <c r="N53" t="n">
+      <c r="N53">
         <v>2978</v>
       </c>
-      <c r="O53"/>
-      <c r="P53"/>
-      <c r="Q53"/>
-      <c r="R53"/>
-      <c r="S53"/>
-      <c r="T53"/>
-      <c r="U53"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A54">
         <v>54</v>
       </c>
       <c r="B54" t="s">
         <v>73</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>94249</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>59623</v>
       </c>
-      <c r="E54" t="n">
-        <v>63.2611486594022</v>
-      </c>
-      <c r="F54" t="n">
+      <c r="E54">
+        <v>63.261148659402203</v>
+      </c>
+      <c r="F54">
         <v>1548</v>
       </c>
-      <c r="G54" t="n">
-        <v>2.5963135031783</v>
-      </c>
-      <c r="H54" t="n">
+      <c r="G54">
+        <v>2.5963135031782998</v>
+      </c>
+      <c r="H54">
         <v>58075</v>
       </c>
-      <c r="I54" t="n">
+      <c r="I54">
         <v>18769</v>
       </c>
-      <c r="J54" t="n">
+      <c r="J54">
         <v>9972</v>
       </c>
-      <c r="K54" t="n">
+      <c r="K54">
         <v>12761</v>
       </c>
-      <c r="L54" t="n">
+      <c r="L54">
         <v>8714</v>
       </c>
-      <c r="M54" t="n">
+      <c r="M54">
         <v>4901</v>
       </c>
-      <c r="N54" t="n">
+      <c r="N54">
         <v>2958</v>
       </c>
-      <c r="O54"/>
-      <c r="P54"/>
-      <c r="Q54"/>
-      <c r="R54"/>
-      <c r="S54"/>
-      <c r="T54"/>
-      <c r="U54"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A55">
         <v>55</v>
       </c>
       <c r="B55" t="s">
         <v>74</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>89643</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>61918</v>
       </c>
-      <c r="E55" t="n">
-        <v>69.0717624354384</v>
-      </c>
-      <c r="F55" t="n">
+      <c r="E55">
+        <v>69.071762435438401</v>
+      </c>
+      <c r="F55">
         <v>1731</v>
       </c>
-      <c r="G55" t="n">
-        <v>2.79563293388029</v>
-      </c>
-      <c r="H55" t="n">
+      <c r="G55">
+        <v>2.7956329338802899</v>
+      </c>
+      <c r="H55">
         <v>60187</v>
       </c>
-      <c r="I55" t="n">
+      <c r="I55">
         <v>19485</v>
       </c>
-      <c r="J55" t="n">
+      <c r="J55">
         <v>12641</v>
       </c>
-      <c r="K55" t="n">
+      <c r="K55">
         <v>11717</v>
       </c>
-      <c r="L55" t="n">
+      <c r="L55">
         <v>8285</v>
       </c>
-      <c r="M55" t="n">
+      <c r="M55">
         <v>5111</v>
       </c>
-      <c r="N55" t="n">
+      <c r="N55">
         <v>2948</v>
       </c>
-      <c r="O55"/>
-      <c r="P55"/>
-      <c r="Q55"/>
-      <c r="R55"/>
-      <c r="S55"/>
-      <c r="T55"/>
-      <c r="U55"/>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A56">
         <v>34</v>
       </c>
       <c r="B56" t="s">
         <v>75</v>
       </c>
-      <c r="C56" t="n">
-        <v>61266</v>
-      </c>
-      <c r="D56" t="n">
-        <v>33679</v>
-      </c>
-      <c r="E56" t="n">
-        <v>54.971762478373</v>
-      </c>
-      <c r="F56" t="n">
-        <v>828</v>
-      </c>
-      <c r="G56" t="n">
-        <v>2.4585053000386</v>
-      </c>
-      <c r="H56" t="n">
-        <v>32851</v>
-      </c>
-      <c r="I56" t="n">
-        <v>8894</v>
-      </c>
-      <c r="J56" t="n">
-        <v>5982</v>
-      </c>
-      <c r="K56" t="n">
-        <v>7675</v>
-      </c>
-      <c r="L56" t="n">
-        <v>4360</v>
-      </c>
-      <c r="M56" t="n">
-        <v>1758</v>
-      </c>
-      <c r="N56" t="n">
-        <v>2551</v>
-      </c>
-      <c r="O56" t="n">
-        <v>1046</v>
-      </c>
-      <c r="P56"/>
-      <c r="Q56" t="n">
-        <v>585</v>
-      </c>
-      <c r="R56"/>
-      <c r="S56"/>
-      <c r="T56"/>
-      <c r="U56"/>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
+      <c r="C56" s="1">
+        <v>64666</v>
+      </c>
+      <c r="D56" s="1">
+        <v>35467</v>
+      </c>
+      <c r="E56">
+        <f>D56/C56*100</f>
+        <v>54.846441715893981</v>
+      </c>
+      <c r="F56" s="1">
+        <v>864</v>
+      </c>
+      <c r="G56">
+        <f>F56/D56*100</f>
+        <v>2.4360673301942652</v>
+      </c>
+      <c r="H56" s="1">
+        <v>34603</v>
+      </c>
+      <c r="I56" s="1">
+        <v>9265</v>
+      </c>
+      <c r="J56" s="1">
+        <v>6437</v>
+      </c>
+      <c r="K56" s="1">
+        <v>8061</v>
+      </c>
+      <c r="L56" s="1">
+        <v>4461</v>
+      </c>
+      <c r="M56" s="1">
+        <v>1898</v>
+      </c>
+      <c r="N56" s="1">
+        <v>2794</v>
+      </c>
+      <c r="O56" s="1">
+        <v>1072</v>
+      </c>
+      <c r="P56" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>612</v>
+      </c>
+      <c r="R56" s="1">
+        <v>0</v>
+      </c>
+      <c r="S56" s="1">
+        <v>0</v>
+      </c>
+      <c r="T56" s="1">
+        <v>0</v>
+      </c>
+      <c r="U56" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A57">
         <v>36</v>
       </c>
       <c r="B57" t="s">
         <v>76</v>
       </c>
-      <c r="C57" t="n">
-        <v>76270</v>
-      </c>
-      <c r="D57" t="n">
-        <v>49826</v>
-      </c>
-      <c r="E57" t="n">
-        <v>65.3284384423758</v>
-      </c>
-      <c r="F57" t="n">
-        <v>728</v>
-      </c>
-      <c r="G57" t="n">
-        <v>1.46108457431863</v>
-      </c>
-      <c r="H57" t="n">
-        <v>49098</v>
-      </c>
-      <c r="I57" t="n">
-        <v>13412</v>
-      </c>
-      <c r="J57" t="n">
-        <v>11696</v>
-      </c>
-      <c r="K57" t="n">
-        <v>10363</v>
-      </c>
-      <c r="L57" t="n">
-        <v>3741</v>
-      </c>
-      <c r="M57" t="n">
-        <v>4306</v>
-      </c>
-      <c r="N57" t="n">
-        <v>3918</v>
-      </c>
-      <c r="O57" t="n">
-        <v>934</v>
-      </c>
-      <c r="P57"/>
-      <c r="Q57" t="n">
-        <v>654</v>
-      </c>
-      <c r="R57"/>
-      <c r="S57"/>
-      <c r="T57"/>
-      <c r="U57"/>
+      <c r="C57" s="1">
+        <v>80984</v>
+      </c>
+      <c r="D57" s="1">
+        <v>52776</v>
+      </c>
+      <c r="E57">
+        <f>D57/C57*100</f>
+        <v>65.168428331522279</v>
+      </c>
+      <c r="F57" s="1">
+        <v>809</v>
+      </c>
+      <c r="G57">
+        <f>F57/D57*100</f>
+        <v>1.5328937395785964</v>
+      </c>
+      <c r="H57" s="1">
+        <v>51967</v>
+      </c>
+      <c r="I57" s="1">
+        <v>14044</v>
+      </c>
+      <c r="J57" s="1">
+        <v>12264</v>
+      </c>
+      <c r="K57" s="1">
+        <v>11143</v>
+      </c>
+      <c r="L57" s="1">
+        <v>4075</v>
+      </c>
+      <c r="M57" s="1">
+        <v>4429</v>
+      </c>
+      <c r="N57" s="1">
+        <v>4190</v>
+      </c>
+      <c r="O57" s="1">
+        <v>1031</v>
+      </c>
+      <c r="P57" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>709</v>
+      </c>
+      <c r="R57" s="1">
+        <v>82</v>
+      </c>
+      <c r="S57" s="1">
+        <v>0</v>
+      </c>
+      <c r="T57" s="1">
+        <v>0</v>
+      </c>
+      <c r="U57" s="1">
+        <v>82</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>